--- a/data/Raspberries Harvested Area in Chile.xlsx
+++ b/data/Raspberries Harvested Area in Chile.xlsx
@@ -494,7 +494,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -770,7 +770,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B4 A6:B10 A5 A12:B37 A11" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B4 A6:B7 A5 A12:B37 A11 A9:B10 A8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>